--- a/ips.xlsx
+++ b/ips.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DevOps Engineer\Desktop\ip-ping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831E34F0-91DA-4273-BB10-6050B78ADFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABD1CF8-E8BD-413E-96BE-9A68814250C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7875" xr2:uid="{0619A9C0-7AC5-4E78-A5AA-5B18E8E1A79E}"/>
+    <workbookView xWindow="6570" yWindow="4605" windowWidth="15375" windowHeight="7875" xr2:uid="{0619A9C0-7AC5-4E78-A5AA-5B18E8E1A79E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,16 +27,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>ip</t>
-  </si>
-  <si>
-    <t>ping</t>
-  </si>
-  <si>
     <t>192.241.152.67</t>
   </si>
   <si>
     <t>20.102.97.219</t>
+  </si>
+  <si>
+    <t>IP Address</t>
+  </si>
+  <si>
+    <t>Live</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,20 +413,20 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
